--- a/data/Field_data/HZ19_FACS_raw.xlsx
+++ b/data/Field_data/HZ19_FACS_raw.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Day1_complete" sheetId="1" state="visible" r:id="rId2"/>
@@ -4737,14 +4737,14 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="1" sqref="N1:P91 Q5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.5"/>
@@ -4752,14 +4752,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="44.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="17" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="17" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -7736,14 +7736,14 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:P91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.5"/>
@@ -7755,7 +7755,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="40.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="14" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="14" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -9931,14 +9931,14 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:P91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.5"/>
@@ -9950,7 +9950,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="40.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="14" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="14" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -14527,16 +14527,16 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="N1:P91 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
